--- a/data/trans_camb/P1401-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1401-Edad-trans_camb.xlsx
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.297038616705791</v>
+        <v>-1.262214986094895</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6407283786168689</v>
+        <v>-0.6934792335586554</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4585627795832844</v>
+        <v>-0.4810368556911485</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.321782841131912</v>
+        <v>-0.3500356977307615</v>
       </c>
     </row>
     <row r="12">
@@ -761,22 +761,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1312705516326959</v>
+        <v>-0.1297315827128384</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.389105692155722</v>
+        <v>1.587483449344922</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8676734353879511</v>
+        <v>1.010389695271633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9807396151082495</v>
+        <v>0.9854923472948047</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.127838530839149</v>
+        <v>0.1131050839003168</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.661785441908789</v>
+        <v>0.6901585389617027</v>
       </c>
     </row>
     <row r="13">
@@ -852,13 +852,13 @@
         <v>-0.5954610234620303</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-0.3374298964637186</v>
+        <v>-0.3374298964637187</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.01377050253849165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.6106617512718808</v>
+        <v>-0.6106617512718805</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.3015564124695131</v>
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.471074384401696</v>
+        <v>-1.445055414608768</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.163965595272852</v>
+        <v>-1.138563243796425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.425830008301945</v>
+        <v>-1.502072655429059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.975437564818263</v>
+        <v>-2.04002587119028</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.097683993958247</v>
+        <v>-1.118604427239637</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.260727061107073</v>
+        <v>-1.269485702561093</v>
       </c>
     </row>
     <row r="18">
@@ -901,22 +901,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01066401541778896</v>
+        <v>0.02184207322753902</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4931434322052926</v>
+        <v>0.4892433142236589</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.340968172496581</v>
+        <v>1.28539167008092</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3811153131740863</v>
+        <v>0.3887733745022121</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4143471654095312</v>
+        <v>0.4030111124157443</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2302116876877351</v>
+        <v>0.1689502014131047</v>
       </c>
     </row>
     <row r="19">
@@ -930,13 +930,13 @@
         <v>-0.7967313991816023</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.4514837796976051</v>
+        <v>-0.4514837796976052</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.009541272715777963</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.4231138471303596</v>
+        <v>-0.4231138471303593</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.273583188792842</v>
@@ -953,18 +953,20 @@
         </is>
       </c>
       <c r="C20" s="6" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6676980990753953</v>
+        <v>-0.6684178053584209</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8274633790526816</v>
+        <v>-0.8573912202096429</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7055049511559613</v>
+        <v>-0.7257896330787194</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7829871102750624</v>
+        <v>-0.7744994118588615</v>
       </c>
     </row>
     <row r="21">
@@ -975,18 +977,20 @@
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>2.162326979036321</v>
+      </c>
       <c r="E21" s="6" t="n">
-        <v>2.038023658022612</v>
+        <v>2.052852988568755</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7455044495275043</v>
+        <v>0.6658302063669771</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6724229763330373</v>
+        <v>0.5787185255752468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4872894899995232</v>
+        <v>0.2836653126071056</v>
       </c>
     </row>
     <row r="22">
@@ -1004,19 +1008,19 @@
         <v>0.1275489983276021</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5237731624196402</v>
+        <v>0.52377316241964</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-1.093945063159824</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.6357097586142005</v>
+        <v>-0.6357097586141999</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.4815124466809009</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.03981959940920904</v>
+        <v>-0.03981959940920869</v>
       </c>
     </row>
     <row r="23">
@@ -1027,22 +1031,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8588339743621085</v>
+        <v>-1.005967423385124</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6219521530058522</v>
+        <v>-0.5955827935995802</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.286584135832708</v>
+        <v>-3.579734632001239</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.957432207927491</v>
+        <v>-2.784193439497132</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.687624342713193</v>
+        <v>-1.647193623800058</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.271360702048163</v>
+        <v>-1.312644390895733</v>
       </c>
     </row>
     <row r="24">
@@ -1053,22 +1057,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.247567485879182</v>
+        <v>1.291619937861322</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.62568379224503</v>
+        <v>1.670945920606417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6755227178564742</v>
+        <v>0.6617779180378193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9849472406120078</v>
+        <v>0.9845040945973765</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5937574059256127</v>
+        <v>0.5987969438273409</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.962475469620655</v>
+        <v>0.985418974422907</v>
       </c>
     </row>
     <row r="25">
@@ -1082,19 +1086,19 @@
         <v>0.1487743093266001</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.6109337705863274</v>
+        <v>0.6109337705863271</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.3387651753178857</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.1968621049453625</v>
+        <v>-0.1968621049453622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2356967217219588</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.01949139447116287</v>
+        <v>-0.0194913944711627</v>
       </c>
     </row>
     <row r="26">
@@ -1105,22 +1109,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6879347408952915</v>
+        <v>-0.7419673857319613</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4925381066497735</v>
+        <v>-0.5565572003265853</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6924149794216909</v>
+        <v>-0.7186643440033059</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5924924939752053</v>
+        <v>-0.585547651515972</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6219131800662618</v>
+        <v>-0.6104760919656728</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4359708500992835</v>
+        <v>-0.4524927117541953</v>
       </c>
     </row>
     <row r="27">
@@ -1131,22 +1135,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.15895242059401</v>
+        <v>3.831634806518835</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.995206073677442</v>
+        <v>5.594454513810803</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3588371621180256</v>
+        <v>0.370676320810191</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5124072545899218</v>
+        <v>0.4992816785069596</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.493412406202762</v>
+        <v>0.4027546490712292</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6919274468521537</v>
+        <v>0.7136763278168191</v>
       </c>
     </row>
     <row r="28">
@@ -1187,22 +1191,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.270209665226135</v>
+        <v>-2.296746184390171</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.320596515342529</v>
+        <v>-0.152205755573424</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.544048898981905</v>
+        <v>-4.121810618523809</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.644847565730109</v>
+        <v>-3.578271374726067</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.684424243648496</v>
+        <v>-2.662352480497327</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.135339661640085</v>
+        <v>-1.197567876031174</v>
       </c>
     </row>
     <row r="30">
@@ -1213,22 +1217,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7349140248783743</v>
+        <v>0.8841207219103694</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.700910342181603</v>
+        <v>3.558974333513262</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4695848998173791</v>
+        <v>0.6602980452086327</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9586753790999865</v>
+        <v>0.8560166205180625</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2836808415694513</v>
+        <v>0.1476484508778906</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.867869342658293</v>
+        <v>1.712663711553488</v>
       </c>
     </row>
     <row r="31">
@@ -1265,22 +1269,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8402329397784079</v>
+        <v>-0.8388422458658055</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2158927433630084</v>
+        <v>-0.1116073266893245</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7287217401447913</v>
+        <v>-0.7206108833058356</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5782113854751975</v>
+        <v>-0.5614278659350835</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.670542299124087</v>
+        <v>-0.6611298199796594</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2874541287866364</v>
+        <v>-0.3013334155145557</v>
       </c>
     </row>
     <row r="33">
@@ -1291,22 +1295,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.287835869138297</v>
+        <v>1.647365627879106</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.386947370999634</v>
+        <v>4.566334057365475</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.172882873092217</v>
+        <v>0.2745368339408589</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3690492298266452</v>
+        <v>0.3222491439568881</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1716750286975848</v>
+        <v>0.1028680717448182</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8526832332089131</v>
+        <v>0.7822680519777284</v>
       </c>
     </row>
     <row r="34">
@@ -1330,13 +1334,13 @@
         <v>1.604546070171867</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1.292700500974345</v>
+        <v>1.292700500974346</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.05045629246980959</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.009912813230481</v>
+        <v>1.00991281323048</v>
       </c>
     </row>
     <row r="35">
@@ -1347,22 +1351,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.956479245151228</v>
+        <v>-5.262291964047509</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.954253471131335</v>
+        <v>-2.651195489702508</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.29713653890033</v>
+        <v>-1.391512736941321</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.176615556965688</v>
+        <v>-1.262964587827549</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.093308759735255</v>
+        <v>-2.366969190663931</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.042430339457596</v>
+        <v>-1.048752557711211</v>
       </c>
     </row>
     <row r="36">
@@ -1373,22 +1377,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1648757052486057</v>
+        <v>0.6759874066017799</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.301116170104092</v>
+        <v>3.562062159947914</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.593157783078423</v>
+        <v>4.467757915383098</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.385626837830692</v>
+        <v>3.607153595491826</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.001933054907881</v>
+        <v>1.9186493927409</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.676580674108184</v>
+        <v>2.769613322143871</v>
       </c>
     </row>
     <row r="37">
@@ -1408,13 +1412,13 @@
         <v>0.485246543242627</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.3909382604879792</v>
+        <v>0.3909382604879795</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.01452425879849994</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2907117099826023</v>
+        <v>0.290711709982602</v>
       </c>
     </row>
     <row r="38">
@@ -1425,22 +1429,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8752010710766848</v>
+        <v>-0.8525241559964909</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4878599186210157</v>
+        <v>-0.4686845765687183</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3335901099590446</v>
+        <v>-0.3192582417555154</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2456061421408862</v>
+        <v>-0.2611680840307997</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4528179528536798</v>
+        <v>-0.4924253598237604</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2028271485955016</v>
+        <v>-0.2255433636837445</v>
       </c>
     </row>
     <row r="39">
@@ -1451,22 +1455,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2060894678887414</v>
+        <v>0.6031189456085116</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.722431788268865</v>
+        <v>2.054708443807814</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.110375707247115</v>
+        <v>2.153513601916011</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.772749141497921</v>
+        <v>1.839278674765571</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8870057909970469</v>
+        <v>0.8172933782184453</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.13918217574842</v>
+        <v>1.243520199438971</v>
       </c>
     </row>
     <row r="40">
@@ -1496,7 +1500,7 @@
         <v>1.326588913831881</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.59797319767413</v>
+        <v>2.597973197674131</v>
       </c>
     </row>
     <row r="41">
@@ -1507,22 +1511,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.753621198108145</v>
+        <v>-1.665921064444621</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.071963089869812</v>
+        <v>0.8519181320099757</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.215794543901533</v>
+        <v>-1.349706364113767</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.6349282294409483</v>
+        <v>-0.7478261983810525</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.6651942048195506</v>
+        <v>-0.752482188666732</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.8302113528546139</v>
+        <v>0.8950881849729959</v>
       </c>
     </row>
     <row r="42">
@@ -1533,22 +1537,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.200047865699823</v>
+        <v>4.687588471773334</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.703725779584205</v>
+        <v>7.276571127352543</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.545170914904378</v>
+        <v>4.316974785659448</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.53414953091422</v>
+        <v>3.515984683826982</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.713608789299769</v>
+        <v>3.726852130958986</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.3904534032551</v>
+        <v>4.401492660726255</v>
       </c>
     </row>
     <row r="43">
@@ -1574,7 +1578,7 @@
         <v>0.4954008715281534</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.9701861465259121</v>
+        <v>0.9701861465259123</v>
       </c>
     </row>
     <row r="44">
@@ -1585,22 +1589,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.435138176345871</v>
+        <v>-0.4074052074042356</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1518324899812356</v>
+        <v>0.09997074577110476</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4525173583256829</v>
+        <v>-0.4386150291502492</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2081643622502342</v>
+        <v>-0.242982302731123</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2393472232653213</v>
+        <v>-0.2214562082677558</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1912581606053537</v>
+        <v>0.2118411191469644</v>
       </c>
     </row>
     <row r="45">
@@ -1611,22 +1615,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.854182912029227</v>
+        <v>3.142751589222275</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>5.915393114331658</v>
+        <v>4.994342590227002</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.419285477962409</v>
+        <v>2.73849255346505</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.825569215234032</v>
+        <v>2.568682934258708</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.06945412373104</v>
+        <v>2.0449788171369</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.748558484337678</v>
+        <v>2.496005028880112</v>
       </c>
     </row>
     <row r="46">
@@ -1644,7 +1648,7 @@
         <v>-0.2669243748262082</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.9707661894515114</v>
+        <v>0.9707661894515117</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>-0.007173207624061595</v>
@@ -1656,7 +1660,7 @@
         <v>-0.1328143749495903</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.6096894318136814</v>
+        <v>0.6096894318136811</v>
       </c>
     </row>
     <row r="47">
@@ -1667,22 +1671,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.7605871940061072</v>
+        <v>-0.8186783142708777</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.3640442662114592</v>
+        <v>0.393127129731125</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.6986357024551428</v>
+        <v>-0.6815336993135089</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.3986313238513639</v>
+        <v>-0.3907518063944755</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5474829819189899</v>
+        <v>-0.5873116396547324</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.1640388690930513</v>
+        <v>0.2132544767924798</v>
       </c>
     </row>
     <row r="48">
@@ -1693,22 +1697,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1846671001933828</v>
+        <v>0.2188619129206008</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.514220635158013</v>
+        <v>1.553091776497125</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.7437555015562839</v>
+        <v>0.6777156203444984</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.8499204325761111</v>
+        <v>0.9005113317183766</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.2983159492072279</v>
+        <v>0.3031115298596719</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.013785268364777</v>
+        <v>1.040206612415953</v>
       </c>
     </row>
     <row r="49">
@@ -1722,7 +1726,7 @@
         <v>-0.2335472986445458</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.8493784852337851</v>
+        <v>0.8493784852337855</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>-0.003560796993306976</v>
@@ -1734,7 +1738,7 @@
         <v>-0.08370406074618682</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3842466695055431</v>
+        <v>0.3842466695055429</v>
       </c>
     </row>
     <row r="50">
@@ -1745,22 +1749,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5295622086792395</v>
+        <v>-0.5632454469865869</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2371477737236752</v>
+        <v>0.2913103875661183</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2928575102643864</v>
+        <v>-0.2926377702702572</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1612471550964952</v>
+        <v>-0.1644035273516512</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3055668901027591</v>
+        <v>-0.3262893173678112</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.09059695524815913</v>
+        <v>0.1132815909750976</v>
       </c>
     </row>
     <row r="51">
@@ -1771,22 +1775,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2133567012649115</v>
+        <v>0.2748026518088352</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.765547234309042</v>
+        <v>1.84102522260434</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4543813553214511</v>
+        <v>0.4213495800017489</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5215140940099294</v>
+        <v>0.529024545638288</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.22469733354682</v>
+        <v>0.226163762618543</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.7537688837112264</v>
+        <v>0.773663716805271</v>
       </c>
     </row>
     <row r="52">
